--- a/app/src/main/res/raw/mappe1.xlsx
+++ b/app/src/main/res/raw/mappe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A200017701\dev\Financial-Dashboard-System\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98547FC-81FB-4F67-9818-63B1053E6A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F659E15-F76F-49A9-8C22-5D5C6DAC87C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D857F614-A3EB-4075-A74A-87EDA66A46F1}"/>
   </bookViews>
@@ -553,7 +553,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,13 +730,6 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1253,7 +1246,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1372,22 +1365,19 @@
     <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1396,31 +1386,31 @@
     <xf numFmtId="164" fontId="21" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="26" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1432,25 +1422,25 @@
     <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1459,43 +1449,43 @@
     <xf numFmtId="164" fontId="21" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="35" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="35" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1504,7 +1494,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1513,15 +1503,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1531,7 +1521,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="44" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="43" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1546,7 +1536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="44" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="43" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1558,7 +1548,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
@@ -1567,16 +1557,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1586,22 +1576,22 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="38" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1613,6 +1603,86 @@
     <cellStyle name="Währung" xfId="4" builtinId="4"/>
   </cellStyles>
   <dxfs count="127">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1643,57 +1713,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <color rgb="FF0070C0"/>
@@ -1708,6 +1727,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1722,6 +1745,10 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1736,6 +1763,10 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1750,6 +1781,10 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1764,6 +1799,10 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1778,6 +1817,10 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1792,6 +1835,10 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1806,6 +1853,10 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1820,6 +1871,10 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1834,6 +1889,10 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1846,6 +1905,10 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1869,6 +1932,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1884,36 +1951,10 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1930,10 +1971,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1948,10 +1985,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1966,10 +1999,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1982,10 +2011,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2003,10 +2028,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2022,10 +2043,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2041,10 +2058,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2060,10 +2073,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2079,10 +2088,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2098,10 +2103,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2117,10 +2118,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2134,10 +2131,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2160,9 +2153,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6685,23 +6675,23 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ECA7576E-AA6F-4C81-90DA-485B2728D5E0}" name="tblEinkünfte14517212430" displayName="tblEinkünfte14517212430" ref="B7:P13" totalsRowCount="1">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{5CDDC1E0-FBC5-4F98-A3F6-313F4F8CD5E4}" name="ART DER EINKÜNFTE" totalsRowLabel="SUMME EINKÜNFTE" totalsRowDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{A9D306E7-B475-452E-B788-207721C73CB7}" name="JAN" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{E186615F-483D-46B9-91A9-0270185161FE}" name="FEB" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{5F8FBE08-83AF-4459-8D3C-B3B284D1AC6D}" name="MÄR" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{8B8030F7-B1BC-4F1A-A4F4-B0803AD5AA12}" name="APR" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{E09DB54C-2E7B-4B31-8ECF-F21DB11C22B0}" name="MAI" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{C5182B93-35F9-4130-8281-893F6D8F0F18}" name="JUN" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{3BF06EFC-D848-4D00-AE68-F1C4C6E8B0BD}" name="JUL" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{8FC99E35-EFE2-4841-9F92-B8E42C14905C}" name="AUG" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{728C0524-4527-4ABA-BEC4-7415D05BE471}" name="SEP" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{90BC5610-8D92-4DB0-85E3-F8AACD4D12A6}" name="OKT" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{87655C2C-308D-4149-A2B2-CDD28D2B4745}" name="NOV" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{020A6024-D2A1-4128-BE1E-A71FEB79AC19}" name="DEZ" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{940A5DAE-E207-4DDB-881A-E03F3A11A290}" name="SUMME JAHR 2023" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="1" xr3:uid="{5CDDC1E0-FBC5-4F98-A3F6-313F4F8CD5E4}" name="ART DER EINKÜNFTE" totalsRowLabel="SUMME EINKÜNFTE" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A9D306E7-B475-452E-B788-207721C73CB7}" name="JAN" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{E186615F-483D-46B9-91A9-0270185161FE}" name="FEB" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{5F8FBE08-83AF-4459-8D3C-B3B284D1AC6D}" name="MÄR" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{8B8030F7-B1BC-4F1A-A4F4-B0803AD5AA12}" name="APR" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{E09DB54C-2E7B-4B31-8ECF-F21DB11C22B0}" name="MAI" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{C5182B93-35F9-4130-8281-893F6D8F0F18}" name="JUN" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{3BF06EFC-D848-4D00-AE68-F1C4C6E8B0BD}" name="JUL" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{8FC99E35-EFE2-4841-9F92-B8E42C14905C}" name="AUG" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{728C0524-4527-4ABA-BEC4-7415D05BE471}" name="SEP" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{90BC5610-8D92-4DB0-85E3-F8AACD4D12A6}" name="OKT" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{87655C2C-308D-4149-A2B2-CDD28D2B4745}" name="NOV" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{020A6024-D2A1-4128-BE1E-A71FEB79AC19}" name="DEZ" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{940A5DAE-E207-4DDB-881A-E03F3A11A290}" name="SUMME JAHR 2023" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="1">
       <calculatedColumnFormula>SUM(tblEinkünfte14517212430[[#This Row],[JAN]:[DEZ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{5264E360-70D6-4D44-80DE-35DC8BFC9FFF}" name="TREND" totalsRowDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{5264E360-70D6-4D44-80DE-35DC8BFC9FFF}" name="TREND" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Family Budget Cash Available 2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -6716,25 +6706,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D02194E4-B257-4131-9B90-3B2A81045413}" name="tblAusgaben15618222531" displayName="tblAusgaben15618222531" ref="B15:P53" totalsRowCount="1">
   <autoFilter ref="B15:P52" xr:uid="{D02194E4-B257-4131-9B90-3B2A81045413}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{BE402B10-7EDD-4020-B93A-8D78116D6E7F}" name="AUSGABEN" totalsRowLabel="SUMME AUSGABEN" dataDxfId="28" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{7AD4D219-367B-48D6-8CCC-43D7EBD7539F}" name="JAN" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{017F40A8-B02B-40B1-A2B7-A35314C0F588}" name="FEB" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="12">
+    <tableColumn id="1" xr3:uid="{BE402B10-7EDD-4020-B93A-8D78116D6E7F}" name="AUSGABEN" totalsRowLabel="SUMME AUSGABEN" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{7AD4D219-367B-48D6-8CCC-43D7EBD7539F}" name="JAN" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{017F40A8-B02B-40B1-A2B7-A35314C0F588}" name="FEB" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>D57</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B6DE9501-E8EA-4CBC-B7ED-B642590E8577}" name="MÄR" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{C3844403-B023-41DC-976B-9B9027124720}" name="APR" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{10FA3CF0-E790-4030-860F-CE01E0003783}" name="MAI" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{E0C475D4-FE46-4CBD-816C-110D09E873E8}" name="JUN" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{0E50226D-0B71-4C2A-8A09-EB578BF1C12D}" name="JUL" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{4DC0353D-2FF0-4FFC-98B4-D8A14077DBF8}" name="AUG" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{FD0E8C8E-3028-47DD-A987-13C0D67FA10A}" name="SEP" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{97983BE4-B813-4443-945D-E9DB599C8EC2}" name="OKT" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{EAA121A8-191C-4823-9721-EE658CAE01EE}" name="NOV" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{34D1CCA7-D740-4F8C-B5B2-E60422102EDE}" name="DEZ" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{DF596331-23CE-484B-AA39-2ED6DCDE300A}" name="SUMME JAHR 2023" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="1">
+    <tableColumn id="4" xr3:uid="{B6DE9501-E8EA-4CBC-B7ED-B642590E8577}" name="MÄR" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{C3844403-B023-41DC-976B-9B9027124720}" name="APR" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{10FA3CF0-E790-4030-860F-CE01E0003783}" name="MAI" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{E0C475D4-FE46-4CBD-816C-110D09E873E8}" name="JUN" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{0E50226D-0B71-4C2A-8A09-EB578BF1C12D}" name="JUL" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{4DC0353D-2FF0-4FFC-98B4-D8A14077DBF8}" name="AUG" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{FD0E8C8E-3028-47DD-A987-13C0D67FA10A}" name="SEP" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{97983BE4-B813-4443-945D-E9DB599C8EC2}" name="OKT" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{EAA121A8-191C-4823-9721-EE658CAE01EE}" name="NOV" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{34D1CCA7-D740-4F8C-B5B2-E60422102EDE}" name="DEZ" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{DF596331-23CE-484B-AA39-2ED6DCDE300A}" name="SUMME JAHR 2023" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{22AE7F4A-EBF2-4B42-AF3B-CF3871482E54}" name="TREND" totalsRowDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{22AE7F4A-EBF2-4B42-AF3B-CF3871482E54}" name="TREND" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="Family Budget Cash Available 3" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -7053,13 +7043,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3F0598-069A-4070-A2FE-6CDB5AEC77F7}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" customWidth="1"/>
     <col min="15" max="15" width="21.28515625" customWidth="1"/>
   </cols>
@@ -7130,7 +7120,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
@@ -7181,7 +7171,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
@@ -7223,7 +7213,7 @@
       </c>
       <c r="O5" s="15">
         <f>tblEinkünfte14517212430[[#Totals],[SUMME JAHR 2023]]-tblAusgaben15618222531[[#Totals],[SUMME JAHR 2023]]</f>
-        <v>3315</v>
+        <v>-27742</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="17">
@@ -7307,49 +7297,49 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J8" s="25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K8" s="25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L8" s="25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M8" s="25">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N8" s="25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O8" s="26">
         <f>SUM(tblEinkünfte14517212430[[#This Row],[JAN]:[DEZ]])</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="27">
@@ -7357,7 +7347,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="13" t="s">
         <v>23</v>
       </c>
@@ -7445,11 +7435,11 @@
         <v>112</v>
       </c>
       <c r="N10" s="25">
-        <v>122</v>
+        <v>-922</v>
       </c>
       <c r="O10" s="28">
         <f>SUM(tblEinkünfte14517212430[[#This Row],[JAN]:[DEZ]])</f>
-        <v>804</v>
+        <v>-240</v>
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="27">
@@ -7507,7 +7497,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="106"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="13" t="s">
         <v>26</v>
       </c>
@@ -7557,61 +7547,61 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="107"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="3">
         <f>SUBTOTAL(109,tblEinkünfte14517212430[JAN])</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3">
         <f>SUBTOTAL(109,tblEinkünfte14517212430[FEB])</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3">
         <f>SUBTOTAL(109,tblEinkünfte14517212430[MÄR])</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F13" s="3">
         <f>SUBTOTAL(109,tblEinkünfte14517212430[APR])</f>
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G13" s="3">
         <f>SUBTOTAL(109,tblEinkünfte14517212430[MAI])</f>
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H13" s="3">
         <f>SUBTOTAL(109,tblEinkünfte14517212430[JUN])</f>
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I13" s="3">
         <f>SUBTOTAL(109,tblEinkünfte14517212430[JUL])</f>
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J13" s="3">
         <f>SUBTOTAL(109,tblEinkünfte14517212430[AUG])</f>
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="K13" s="3">
         <f>SUBTOTAL(109,tblEinkünfte14517212430[SEP])</f>
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="L13" s="3">
         <f>SUBTOTAL(109,tblEinkünfte14517212430[OKT])</f>
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="M13" s="3">
         <f>SUBTOTAL(109,tblEinkünfte14517212430[NOV])</f>
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="N13" s="3">
         <f>SUBTOTAL(109,tblEinkünfte14517212430[DEZ])</f>
-        <v>502</v>
+        <v>-554</v>
       </c>
       <c r="O13" s="33">
         <f>SUBTOTAL(109,tblEinkünfte14517212430[SUMME JAHR 2023])</f>
-        <v>3318</v>
+        <v>2196</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="34">
@@ -7621,21 +7611,21 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
       <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
@@ -7745,44 +7735,44 @@
         <v>30</v>
       </c>
       <c r="C17" s="37">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D17" s="37">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E17" s="37">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F17" s="37">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G17" s="37">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H17" s="37">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I17" s="37">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J17" s="37">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K17" s="37">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="L17" s="37">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="M17" s="37">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="N17" s="37">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="O17" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="27">
@@ -7795,44 +7785,44 @@
         <v>31</v>
       </c>
       <c r="C18" s="37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D18" s="37">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E18" s="37">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F18" s="37">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G18" s="37">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H18" s="37">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I18" s="37">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J18" s="37">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K18" s="37">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="L18" s="37">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="M18" s="37">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="N18" s="37">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="O18" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="27">
@@ -7845,44 +7835,44 @@
         <v>32</v>
       </c>
       <c r="C19" s="37">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D19" s="37">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E19" s="37">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F19" s="37">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G19" s="37">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="H19" s="37">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I19" s="37">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J19" s="37">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K19" s="37">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="L19" s="37">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M19" s="37">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="N19" s="37">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="O19" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="27">
@@ -7895,44 +7885,44 @@
         <v>33</v>
       </c>
       <c r="C20" s="37">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D20" s="37">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E20" s="37">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F20" s="37">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G20" s="37">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H20" s="37">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I20" s="37">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J20" s="37">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K20" s="37">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="L20" s="37">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="M20" s="37">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="N20" s="37">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="O20" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="27">
@@ -7945,44 +7935,44 @@
         <v>34</v>
       </c>
       <c r="C21" s="37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D21" s="37">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E21" s="37">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F21" s="37">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G21" s="37">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H21" s="37">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I21" s="37">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J21" s="37">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K21" s="37">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L21" s="37">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="M21" s="37">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="N21" s="37">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="O21" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="27">
@@ -7995,44 +7985,44 @@
         <v>35</v>
       </c>
       <c r="C22" s="37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D22" s="37">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E22" s="37">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F22" s="37">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G22" s="37">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H22" s="37">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I22" s="37">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J22" s="37">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="K22" s="37">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="L22" s="37">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="M22" s="37">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="N22" s="37">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="O22" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="27">
@@ -8045,44 +8035,44 @@
         <v>36</v>
       </c>
       <c r="C23" s="37">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D23" s="37">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E23" s="37">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F23" s="37">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G23" s="37">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H23" s="37">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I23" s="37">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="J23" s="37">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="K23" s="37">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L23" s="37">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="M23" s="37">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="N23" s="37">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="O23" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="27">
@@ -8095,44 +8085,44 @@
         <v>37</v>
       </c>
       <c r="C24" s="37">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D24" s="37">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E24" s="37">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F24" s="37">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G24" s="37">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H24" s="37">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I24" s="37">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J24" s="37">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="K24" s="37">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="L24" s="37">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="M24" s="37">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="N24" s="37">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="O24" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="27">
@@ -8145,44 +8135,44 @@
         <v>38</v>
       </c>
       <c r="C25" s="38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D25" s="38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E25" s="38">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F25" s="38">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G25" s="38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H25" s="38">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I25" s="38">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J25" s="38">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K25" s="38">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L25" s="38">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M25" s="38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N25" s="38">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="O25" s="39">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="P25" s="40"/>
       <c r="Q25" s="27">
@@ -8195,44 +8185,44 @@
         <v>39</v>
       </c>
       <c r="C26" s="38">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D26" s="38">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E26" s="38">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F26" s="38">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G26" s="38">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H26" s="38">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I26" s="38">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J26" s="38">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K26" s="38">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="L26" s="38">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="M26" s="38">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="N26" s="38">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="O26" s="39">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="P26" s="40"/>
       <c r="Q26" s="27">
@@ -8245,44 +8235,44 @@
         <v>40</v>
       </c>
       <c r="C27" s="38">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D27" s="38">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E27" s="38">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F27" s="38">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G27" s="38">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H27" s="38">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I27" s="38">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J27" s="38">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K27" s="38">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="L27" s="38">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="M27" s="38">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="N27" s="38">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="O27" s="39">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="P27" s="40"/>
       <c r="Q27" s="27">
@@ -8295,44 +8285,44 @@
         <v>41</v>
       </c>
       <c r="C28" s="41">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D28" s="41">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E28" s="41">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F28" s="41">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G28" s="41">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="H28" s="41">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I28" s="41">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J28" s="41">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K28" s="41">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="L28" s="41">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M28" s="41">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="N28" s="41">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="O28" s="39">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="P28" s="40"/>
       <c r="Q28" s="27">
@@ -8345,44 +8335,44 @@
         <v>42</v>
       </c>
       <c r="C29" s="41">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D29" s="41">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E29" s="41">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F29" s="41">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G29" s="41">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H29" s="41">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I29" s="41">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J29" s="41">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K29" s="41">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="L29" s="41">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="M29" s="41">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="N29" s="41">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="O29" s="39">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="P29" s="40"/>
       <c r="Q29" s="27">
@@ -8395,44 +8385,44 @@
         <v>43</v>
       </c>
       <c r="C30" s="38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D30" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E30" s="38">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F30" s="38">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G30" s="38">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H30" s="38">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I30" s="38">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J30" s="38">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K30" s="38">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L30" s="38">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="M30" s="38">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="N30" s="38">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="O30" s="39">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="P30" s="40"/>
       <c r="Q30" s="27">
@@ -8444,45 +8434,45 @@
       <c r="B31" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="42">
-        <v>0</v>
-      </c>
-      <c r="D31" s="42">
-        <v>0</v>
-      </c>
-      <c r="E31" s="42">
-        <v>0</v>
-      </c>
-      <c r="F31" s="42">
-        <v>0</v>
-      </c>
-      <c r="G31" s="42">
-        <v>0</v>
-      </c>
-      <c r="H31" s="42">
-        <v>0</v>
-      </c>
-      <c r="I31" s="42">
-        <v>0</v>
-      </c>
-      <c r="J31" s="42">
-        <v>0</v>
-      </c>
-      <c r="K31" s="42">
-        <v>0</v>
-      </c>
-      <c r="L31" s="42">
-        <v>0</v>
-      </c>
-      <c r="M31" s="42">
-        <v>0</v>
-      </c>
-      <c r="N31" s="42">
-        <v>0</v>
+      <c r="C31" s="38">
+        <v>16</v>
+      </c>
+      <c r="D31" s="38">
+        <v>26</v>
+      </c>
+      <c r="E31" s="38">
+        <v>36</v>
+      </c>
+      <c r="F31" s="38">
+        <v>46</v>
+      </c>
+      <c r="G31" s="38">
+        <v>56</v>
+      </c>
+      <c r="H31" s="38">
+        <v>66</v>
+      </c>
+      <c r="I31" s="38">
+        <v>76</v>
+      </c>
+      <c r="J31" s="38">
+        <v>86</v>
+      </c>
+      <c r="K31" s="38">
+        <v>96</v>
+      </c>
+      <c r="L31" s="38">
+        <v>106</v>
+      </c>
+      <c r="M31" s="38">
+        <v>116</v>
+      </c>
+      <c r="N31" s="38">
+        <v>126</v>
       </c>
       <c r="O31" s="39">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="P31" s="40"/>
       <c r="Q31" s="27">
@@ -8494,45 +8484,45 @@
       <c r="B32" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="42">
-        <v>0</v>
-      </c>
-      <c r="D32" s="42">
-        <v>0</v>
-      </c>
-      <c r="E32" s="42">
-        <v>0</v>
-      </c>
-      <c r="F32" s="42">
-        <v>0</v>
-      </c>
-      <c r="G32" s="42">
-        <v>0</v>
-      </c>
-      <c r="H32" s="42">
-        <v>0</v>
-      </c>
-      <c r="I32" s="42">
-        <v>0</v>
-      </c>
-      <c r="J32" s="42">
-        <v>0</v>
-      </c>
-      <c r="K32" s="42">
-        <v>0</v>
-      </c>
-      <c r="L32" s="42">
-        <v>0</v>
-      </c>
-      <c r="M32" s="42">
-        <v>0</v>
-      </c>
-      <c r="N32" s="42">
-        <v>0</v>
+      <c r="C32" s="38">
+        <v>17</v>
+      </c>
+      <c r="D32" s="38">
+        <v>27</v>
+      </c>
+      <c r="E32" s="38">
+        <v>37</v>
+      </c>
+      <c r="F32" s="38">
+        <v>47</v>
+      </c>
+      <c r="G32" s="38">
+        <v>57</v>
+      </c>
+      <c r="H32" s="38">
+        <v>67</v>
+      </c>
+      <c r="I32" s="38">
+        <v>77</v>
+      </c>
+      <c r="J32" s="38">
+        <v>87</v>
+      </c>
+      <c r="K32" s="38">
+        <v>97</v>
+      </c>
+      <c r="L32" s="38">
+        <v>107</v>
+      </c>
+      <c r="M32" s="38">
+        <v>117</v>
+      </c>
+      <c r="N32" s="38">
+        <v>127</v>
       </c>
       <c r="O32" s="39">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="P32" s="40"/>
       <c r="Q32" s="27">
@@ -8545,44 +8535,44 @@
         <v>46</v>
       </c>
       <c r="C33" s="25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D33" s="25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E33" s="25">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F33" s="25">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G33" s="25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H33" s="25">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I33" s="25">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J33" s="25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K33" s="25">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L33" s="25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="25">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N33" s="25">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="O33" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="27">
@@ -8595,44 +8585,44 @@
         <v>47</v>
       </c>
       <c r="C34" s="25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D34" s="25">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E34" s="25">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F34" s="25">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G34" s="25">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H34" s="25">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I34" s="25">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J34" s="25">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K34" s="25">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="L34" s="25">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="M34" s="25">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="N34" s="25">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="O34" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="27">
@@ -8644,45 +8634,45 @@
       <c r="B35" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="29">
-        <v>0</v>
-      </c>
-      <c r="D35" s="29">
-        <v>0</v>
-      </c>
-      <c r="E35" s="29">
-        <v>0</v>
-      </c>
-      <c r="F35" s="29">
-        <v>0</v>
-      </c>
-      <c r="G35" s="29">
-        <v>0</v>
-      </c>
-      <c r="H35" s="29">
-        <v>0</v>
-      </c>
-      <c r="I35" s="29">
-        <v>0</v>
-      </c>
-      <c r="J35" s="29">
-        <v>0</v>
-      </c>
-      <c r="K35" s="29">
-        <v>0</v>
-      </c>
-      <c r="L35" s="29">
-        <v>0</v>
-      </c>
-      <c r="M35" s="29">
-        <v>0</v>
-      </c>
-      <c r="N35" s="29">
-        <v>0</v>
+      <c r="C35" s="25">
+        <v>12</v>
+      </c>
+      <c r="D35" s="25">
+        <v>22</v>
+      </c>
+      <c r="E35" s="25">
+        <v>32</v>
+      </c>
+      <c r="F35" s="25">
+        <v>42</v>
+      </c>
+      <c r="G35" s="25">
+        <v>52</v>
+      </c>
+      <c r="H35" s="25">
+        <v>62</v>
+      </c>
+      <c r="I35" s="25">
+        <v>72</v>
+      </c>
+      <c r="J35" s="25">
+        <v>82</v>
+      </c>
+      <c r="K35" s="25">
+        <v>92</v>
+      </c>
+      <c r="L35" s="25">
+        <v>102</v>
+      </c>
+      <c r="M35" s="25">
+        <v>112</v>
+      </c>
+      <c r="N35" s="25">
+        <v>122</v>
       </c>
       <c r="O35" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="27">
@@ -8695,44 +8685,44 @@
         <v>49</v>
       </c>
       <c r="C36" s="25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D36" s="25">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E36" s="25">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F36" s="25">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G36" s="25">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="H36" s="25">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I36" s="25">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J36" s="25">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K36" s="25">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="L36" s="25">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M36" s="25">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="N36" s="25">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="O36" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="27">
@@ -8745,44 +8735,44 @@
         <v>50</v>
       </c>
       <c r="C37" s="25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D37" s="25">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E37" s="25">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F37" s="25">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G37" s="25">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H37" s="25">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I37" s="25">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J37" s="25">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K37" s="25">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="L37" s="25">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="M37" s="25">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="N37" s="25">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="O37" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="27">
@@ -8794,45 +8784,45 @@
       <c r="B38" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="37">
-        <v>0</v>
-      </c>
-      <c r="D38" s="37">
-        <v>0</v>
-      </c>
-      <c r="E38" s="37">
-        <v>0</v>
-      </c>
-      <c r="F38" s="37">
-        <v>0</v>
-      </c>
-      <c r="G38" s="37">
-        <v>0</v>
-      </c>
-      <c r="H38" s="37">
-        <v>0</v>
-      </c>
-      <c r="I38" s="37">
-        <v>0</v>
-      </c>
-      <c r="J38" s="37">
-        <v>0</v>
-      </c>
-      <c r="K38" s="37">
-        <v>0</v>
-      </c>
-      <c r="L38" s="37">
-        <v>0</v>
-      </c>
-      <c r="M38" s="37">
-        <v>0</v>
-      </c>
-      <c r="N38" s="37">
-        <v>0</v>
+      <c r="C38" s="25">
+        <v>15</v>
+      </c>
+      <c r="D38" s="25">
+        <v>25</v>
+      </c>
+      <c r="E38" s="25">
+        <v>35</v>
+      </c>
+      <c r="F38" s="25">
+        <v>45</v>
+      </c>
+      <c r="G38" s="25">
+        <v>55</v>
+      </c>
+      <c r="H38" s="25">
+        <v>65</v>
+      </c>
+      <c r="I38" s="25">
+        <v>75</v>
+      </c>
+      <c r="J38" s="25">
+        <v>85</v>
+      </c>
+      <c r="K38" s="25">
+        <v>95</v>
+      </c>
+      <c r="L38" s="25">
+        <v>105</v>
+      </c>
+      <c r="M38" s="25">
+        <v>115</v>
+      </c>
+      <c r="N38" s="25">
+        <v>125</v>
       </c>
       <c r="O38" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="27">
@@ -8844,45 +8834,45 @@
       <c r="B39" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="37">
-        <v>0</v>
-      </c>
-      <c r="D39" s="37">
-        <v>0</v>
-      </c>
-      <c r="E39" s="37">
-        <v>0</v>
-      </c>
-      <c r="F39" s="37">
-        <v>0</v>
-      </c>
-      <c r="G39" s="37">
-        <v>0</v>
-      </c>
-      <c r="H39" s="37">
-        <v>0</v>
-      </c>
-      <c r="I39" s="37">
-        <v>0</v>
-      </c>
-      <c r="J39" s="37">
-        <v>0</v>
-      </c>
-      <c r="K39" s="37">
-        <v>0</v>
-      </c>
-      <c r="L39" s="37">
-        <v>0</v>
-      </c>
-      <c r="M39" s="37">
-        <v>0</v>
-      </c>
-      <c r="N39" s="37">
-        <v>0</v>
+      <c r="C39" s="25">
+        <v>16</v>
+      </c>
+      <c r="D39" s="25">
+        <v>26</v>
+      </c>
+      <c r="E39" s="25">
+        <v>36</v>
+      </c>
+      <c r="F39" s="25">
+        <v>46</v>
+      </c>
+      <c r="G39" s="25">
+        <v>56</v>
+      </c>
+      <c r="H39" s="25">
+        <v>66</v>
+      </c>
+      <c r="I39" s="25">
+        <v>76</v>
+      </c>
+      <c r="J39" s="25">
+        <v>86</v>
+      </c>
+      <c r="K39" s="25">
+        <v>96</v>
+      </c>
+      <c r="L39" s="25">
+        <v>106</v>
+      </c>
+      <c r="M39" s="25">
+        <v>116</v>
+      </c>
+      <c r="N39" s="25">
+        <v>126</v>
       </c>
       <c r="O39" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="27">
@@ -8894,45 +8884,45 @@
       <c r="B40" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="37">
-        <v>0</v>
-      </c>
-      <c r="D40" s="37">
-        <v>0</v>
-      </c>
-      <c r="E40" s="37">
-        <v>0</v>
-      </c>
-      <c r="F40" s="37">
-        <v>0</v>
-      </c>
-      <c r="G40" s="37">
-        <v>0</v>
-      </c>
-      <c r="H40" s="37">
-        <v>0</v>
-      </c>
-      <c r="I40" s="37">
-        <v>0</v>
-      </c>
-      <c r="J40" s="37">
-        <v>0</v>
-      </c>
-      <c r="K40" s="37">
-        <v>0</v>
-      </c>
-      <c r="L40" s="37">
-        <v>0</v>
-      </c>
-      <c r="M40" s="37">
-        <v>0</v>
-      </c>
-      <c r="N40" s="37">
-        <v>0</v>
+      <c r="C40" s="25">
+        <v>17</v>
+      </c>
+      <c r="D40" s="25">
+        <v>27</v>
+      </c>
+      <c r="E40" s="25">
+        <v>37</v>
+      </c>
+      <c r="F40" s="25">
+        <v>47</v>
+      </c>
+      <c r="G40" s="25">
+        <v>57</v>
+      </c>
+      <c r="H40" s="25">
+        <v>67</v>
+      </c>
+      <c r="I40" s="25">
+        <v>77</v>
+      </c>
+      <c r="J40" s="25">
+        <v>87</v>
+      </c>
+      <c r="K40" s="25">
+        <v>97</v>
+      </c>
+      <c r="L40" s="25">
+        <v>107</v>
+      </c>
+      <c r="M40" s="25">
+        <v>117</v>
+      </c>
+      <c r="N40" s="25">
+        <v>127</v>
       </c>
       <c r="O40" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="27">
@@ -8944,45 +8934,45 @@
       <c r="B41" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="37">
-        <v>0</v>
-      </c>
-      <c r="D41" s="37">
-        <v>0</v>
-      </c>
-      <c r="E41" s="37">
-        <v>0</v>
-      </c>
-      <c r="F41" s="37">
-        <v>0</v>
-      </c>
-      <c r="G41" s="37">
-        <v>0</v>
-      </c>
-      <c r="H41" s="37">
-        <v>0</v>
-      </c>
-      <c r="I41" s="37">
-        <v>0</v>
-      </c>
-      <c r="J41" s="37">
-        <v>0</v>
-      </c>
-      <c r="K41" s="37">
-        <v>0</v>
-      </c>
-      <c r="L41" s="37">
-        <v>0</v>
-      </c>
-      <c r="M41" s="37">
-        <v>0</v>
-      </c>
-      <c r="N41" s="37">
-        <v>0</v>
+      <c r="C41" s="25">
+        <v>18</v>
+      </c>
+      <c r="D41" s="25">
+        <v>28</v>
+      </c>
+      <c r="E41" s="25">
+        <v>38</v>
+      </c>
+      <c r="F41" s="25">
+        <v>48</v>
+      </c>
+      <c r="G41" s="25">
+        <v>58</v>
+      </c>
+      <c r="H41" s="25">
+        <v>68</v>
+      </c>
+      <c r="I41" s="25">
+        <v>78</v>
+      </c>
+      <c r="J41" s="25">
+        <v>88</v>
+      </c>
+      <c r="K41" s="25">
+        <v>98</v>
+      </c>
+      <c r="L41" s="25">
+        <v>108</v>
+      </c>
+      <c r="M41" s="25">
+        <v>118</v>
+      </c>
+      <c r="N41" s="25">
+        <v>128</v>
       </c>
       <c r="O41" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="27">
@@ -8994,45 +8984,45 @@
       <c r="B42" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="37">
-        <v>0</v>
-      </c>
-      <c r="D42" s="37">
-        <v>0</v>
-      </c>
-      <c r="E42" s="37">
-        <v>0</v>
-      </c>
-      <c r="F42" s="37">
-        <v>0</v>
-      </c>
-      <c r="G42" s="37">
-        <v>0</v>
-      </c>
-      <c r="H42" s="37">
-        <v>0</v>
-      </c>
-      <c r="I42" s="37">
-        <v>0</v>
-      </c>
-      <c r="J42" s="37">
-        <v>0</v>
-      </c>
-      <c r="K42" s="37">
-        <v>0</v>
-      </c>
-      <c r="L42" s="37">
-        <v>0</v>
-      </c>
-      <c r="M42" s="37">
-        <v>0</v>
-      </c>
-      <c r="N42" s="37">
-        <v>0</v>
+      <c r="C42" s="25">
+        <v>19</v>
+      </c>
+      <c r="D42" s="25">
+        <v>29</v>
+      </c>
+      <c r="E42" s="25">
+        <v>39</v>
+      </c>
+      <c r="F42" s="25">
+        <v>49</v>
+      </c>
+      <c r="G42" s="25">
+        <v>59</v>
+      </c>
+      <c r="H42" s="25">
+        <v>69</v>
+      </c>
+      <c r="I42" s="25">
+        <v>79</v>
+      </c>
+      <c r="J42" s="25">
+        <v>89</v>
+      </c>
+      <c r="K42" s="25">
+        <v>99</v>
+      </c>
+      <c r="L42" s="25">
+        <v>109</v>
+      </c>
+      <c r="M42" s="25">
+        <v>119</v>
+      </c>
+      <c r="N42" s="25">
+        <v>129</v>
       </c>
       <c r="O42" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="27">
@@ -9044,45 +9034,45 @@
       <c r="B43" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="37">
-        <v>0</v>
-      </c>
-      <c r="D43" s="37">
-        <v>0</v>
-      </c>
-      <c r="E43" s="37">
-        <v>0</v>
-      </c>
-      <c r="F43" s="37">
-        <v>0</v>
-      </c>
-      <c r="G43" s="37">
-        <v>0</v>
-      </c>
-      <c r="H43" s="37">
-        <v>0</v>
-      </c>
-      <c r="I43" s="37">
-        <v>0</v>
-      </c>
-      <c r="J43" s="37">
-        <v>0</v>
-      </c>
-      <c r="K43" s="37">
-        <v>0</v>
-      </c>
-      <c r="L43" s="37">
-        <v>0</v>
-      </c>
-      <c r="M43" s="37">
-        <v>0</v>
-      </c>
-      <c r="N43" s="37">
-        <v>0</v>
+      <c r="C43" s="25">
+        <v>20</v>
+      </c>
+      <c r="D43" s="25">
+        <v>30</v>
+      </c>
+      <c r="E43" s="25">
+        <v>40</v>
+      </c>
+      <c r="F43" s="25">
+        <v>50</v>
+      </c>
+      <c r="G43" s="25">
+        <v>60</v>
+      </c>
+      <c r="H43" s="25">
+        <v>70</v>
+      </c>
+      <c r="I43" s="25">
+        <v>80</v>
+      </c>
+      <c r="J43" s="25">
+        <v>90</v>
+      </c>
+      <c r="K43" s="25">
+        <v>100</v>
+      </c>
+      <c r="L43" s="25">
+        <v>110</v>
+      </c>
+      <c r="M43" s="25">
+        <v>120</v>
+      </c>
+      <c r="N43" s="25">
+        <v>130</v>
       </c>
       <c r="O43" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="27">
@@ -9094,45 +9084,45 @@
       <c r="B44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="37">
-        <v>0</v>
-      </c>
-      <c r="D44" s="37">
-        <v>0</v>
-      </c>
-      <c r="E44" s="37">
-        <v>0</v>
-      </c>
-      <c r="F44" s="37">
-        <v>0</v>
-      </c>
-      <c r="G44" s="37">
-        <v>0</v>
-      </c>
-      <c r="H44" s="37">
-        <v>0</v>
-      </c>
-      <c r="I44" s="37">
-        <v>0</v>
-      </c>
-      <c r="J44" s="37">
-        <v>0</v>
-      </c>
-      <c r="K44" s="37">
-        <v>0</v>
-      </c>
-      <c r="L44" s="37">
-        <v>0</v>
-      </c>
-      <c r="M44" s="37">
-        <v>0</v>
-      </c>
-      <c r="N44" s="37">
-        <v>0</v>
+      <c r="C44" s="25">
+        <v>21</v>
+      </c>
+      <c r="D44" s="25">
+        <v>31</v>
+      </c>
+      <c r="E44" s="25">
+        <v>41</v>
+      </c>
+      <c r="F44" s="25">
+        <v>51</v>
+      </c>
+      <c r="G44" s="25">
+        <v>61</v>
+      </c>
+      <c r="H44" s="25">
+        <v>71</v>
+      </c>
+      <c r="I44" s="25">
+        <v>81</v>
+      </c>
+      <c r="J44" s="25">
+        <v>91</v>
+      </c>
+      <c r="K44" s="25">
+        <v>101</v>
+      </c>
+      <c r="L44" s="25">
+        <v>111</v>
+      </c>
+      <c r="M44" s="25">
+        <v>121</v>
+      </c>
+      <c r="N44" s="25">
+        <v>131</v>
       </c>
       <c r="O44" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="27">
@@ -9145,44 +9135,44 @@
         <v>58</v>
       </c>
       <c r="C45" s="25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D45" s="25">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E45" s="25">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F45" s="25">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G45" s="25">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H45" s="25">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I45" s="25">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J45" s="25">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="K45" s="25">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="L45" s="25">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="M45" s="25">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="N45" s="25">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="O45" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="27">
@@ -9190,53 +9180,53 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="108">
+      <c r="A46" s="107">
         <v>68</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="44">
-        <v>0</v>
-      </c>
-      <c r="D46" s="44">
-        <v>0</v>
-      </c>
-      <c r="E46" s="44">
-        <v>0</v>
-      </c>
-      <c r="F46" s="44">
-        <v>0</v>
-      </c>
-      <c r="G46" s="44">
-        <v>0</v>
-      </c>
-      <c r="H46" s="44">
-        <v>0</v>
-      </c>
-      <c r="I46" s="44">
-        <v>0</v>
-      </c>
-      <c r="J46" s="44">
-        <v>0</v>
-      </c>
-      <c r="K46" s="44">
-        <v>0</v>
-      </c>
-      <c r="L46" s="44">
-        <v>0</v>
-      </c>
-      <c r="M46" s="44">
-        <v>0</v>
-      </c>
-      <c r="N46" s="44">
-        <v>0</v>
-      </c>
-      <c r="O46" s="45">
+      <c r="C46" s="43">
+        <v>10</v>
+      </c>
+      <c r="D46" s="43">
+        <v>20</v>
+      </c>
+      <c r="E46" s="43">
+        <v>30</v>
+      </c>
+      <c r="F46" s="43">
+        <v>40</v>
+      </c>
+      <c r="G46" s="43">
+        <v>50</v>
+      </c>
+      <c r="H46" s="43">
+        <v>60</v>
+      </c>
+      <c r="I46" s="43">
+        <v>70</v>
+      </c>
+      <c r="J46" s="43">
+        <v>80</v>
+      </c>
+      <c r="K46" s="43">
+        <v>90</v>
+      </c>
+      <c r="L46" s="43">
+        <v>100</v>
+      </c>
+      <c r="M46" s="43">
+        <v>110</v>
+      </c>
+      <c r="N46" s="43">
+        <v>120</v>
+      </c>
+      <c r="O46" s="44">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="46"/>
+        <v>780</v>
+      </c>
+      <c r="P46" s="45"/>
       <c r="Q46" s="27">
         <v>0</v>
       </c>
@@ -9247,44 +9237,44 @@
         <v>60</v>
       </c>
       <c r="C47" s="37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D47" s="37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E47" s="37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F47" s="37">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G47" s="37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H47" s="37">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I47" s="37">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J47" s="37">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K47" s="37">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L47" s="37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M47" s="37">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N47" s="37">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="O47" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="27">
@@ -9297,44 +9287,44 @@
         <v>61</v>
       </c>
       <c r="C48" s="37">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D48" s="37">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E48" s="37">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F48" s="37">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G48" s="37">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H48" s="37">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I48" s="37">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J48" s="37">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K48" s="37">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="L48" s="37">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="M48" s="37">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="N48" s="37">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="O48" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="27">
@@ -9347,44 +9337,44 @@
         <v>62</v>
       </c>
       <c r="C49" s="37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D49" s="37">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E49" s="37">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F49" s="37">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G49" s="37">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H49" s="37">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I49" s="37">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J49" s="37">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K49" s="37">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="L49" s="37">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="M49" s="37">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="N49" s="37">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="O49" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="P49" s="4"/>
       <c r="Q49" s="27">
@@ -9397,44 +9387,44 @@
         <v>63</v>
       </c>
       <c r="C50" s="37">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D50" s="37">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E50" s="37">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F50" s="37">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G50" s="37">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="H50" s="37">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I50" s="37">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J50" s="37">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K50" s="37">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="L50" s="37">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M50" s="37">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="N50" s="37">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="O50" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="27">
@@ -9447,44 +9437,44 @@
         <v>64</v>
       </c>
       <c r="C51" s="37">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D51" s="37">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E51" s="37">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F51" s="37">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G51" s="37">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H51" s="37">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I51" s="37">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J51" s="37">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K51" s="37">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="L51" s="37">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="M51" s="37">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="N51" s="37">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="O51" s="28">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>1</v>
+        <v>828</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="27">
@@ -9497,44 +9487,44 @@
         <v>65</v>
       </c>
       <c r="C52" s="37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D52" s="37">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E52" s="37">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F52" s="37">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G52" s="37">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H52" s="37">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I52" s="37">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J52" s="37">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K52" s="37">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L52" s="37">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="M52" s="37">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="N52" s="37">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="O52" s="26">
         <f>SUM(tblAusgaben15618222531[[#This Row],[JAN]:[DEZ]])</f>
-        <v>2</v>
+        <v>814</v>
       </c>
       <c r="P52" s="4"/>
       <c r="Q52" s="27">
@@ -9548,58 +9538,58 @@
       </c>
       <c r="C53" s="3">
         <f>SUBTOTAL(109,tblAusgaben15618222531[JAN])</f>
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="D53" s="3">
         <f>SUBTOTAL(109,tblAusgaben15618222531[FEB])</f>
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="E53" s="3">
         <f>SUBTOTAL(109,tblAusgaben15618222531[MÄR])</f>
-        <v>0</v>
+        <v>1237</v>
       </c>
       <c r="F53" s="3">
         <f>SUBTOTAL(109,tblAusgaben15618222531[APR])</f>
-        <v>0</v>
+        <v>1597</v>
       </c>
       <c r="G53" s="3">
         <f>SUBTOTAL(109,tblAusgaben15618222531[MAI])</f>
-        <v>0</v>
+        <v>1957</v>
       </c>
       <c r="H53" s="3">
         <f>SUBTOTAL(109,tblAusgaben15618222531[JUN])</f>
-        <v>0</v>
+        <v>2317</v>
       </c>
       <c r="I53" s="3">
         <f>SUBTOTAL(109,tblAusgaben15618222531[JUL])</f>
-        <v>0</v>
+        <v>2677</v>
       </c>
       <c r="J53" s="3">
         <f>SUBTOTAL(109,tblAusgaben15618222531[AUG])</f>
-        <v>0</v>
+        <v>3037</v>
       </c>
       <c r="K53" s="3">
         <f>SUBTOTAL(109,tblAusgaben15618222531[SEP])</f>
-        <v>0</v>
+        <v>3397</v>
       </c>
       <c r="L53" s="3">
         <f>SUBTOTAL(109,tblAusgaben15618222531[OKT])</f>
-        <v>0</v>
+        <v>3757</v>
       </c>
       <c r="M53" s="3">
         <f>SUBTOTAL(109,tblAusgaben15618222531[NOV])</f>
-        <v>0</v>
+        <v>4117</v>
       </c>
       <c r="N53" s="3">
         <f>SUBTOTAL(109,tblAusgaben15618222531[DEZ])</f>
-        <v>3</v>
+        <v>4451</v>
       </c>
       <c r="O53" s="28">
         <f>SUBTOTAL(109,tblAusgaben15618222531[SUMME JAHR 2023])</f>
-        <v>3</v>
+        <v>29938</v>
       </c>
       <c r="P53" s="4"/>
-      <c r="Q53" s="47">
+      <c r="Q53" s="46">
         <f>SUM(Q16:Q52)</f>
         <v>0</v>
       </c>
@@ -9626,7 +9616,7 @@
     <row r="55" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="109"/>
+      <c r="C55" s="108"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -9636,118 +9626,118 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="110"/>
+      <c r="M55" s="109"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="112"/>
+      <c r="P55" s="110"/>
+      <c r="Q55" s="110"/>
+      <c r="R55" s="111"/>
     </row>
     <row r="56" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="49">
-        <v>0</v>
-      </c>
-      <c r="D56" s="49">
-        <v>0</v>
-      </c>
-      <c r="E56" s="49">
-        <v>0</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="51">
+      <c r="C56" s="48">
+        <v>0</v>
+      </c>
+      <c r="D56" s="48">
+        <v>0</v>
+      </c>
+      <c r="E56" s="48">
+        <v>0</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="50">
         <f>SUM(C56:N56)</f>
         <v>0</v>
       </c>
-      <c r="P56" s="113"/>
-      <c r="Q56" s="113"/>
-      <c r="R56" s="112"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="112"/>
+      <c r="R56" s="111"/>
     </row>
     <row r="57" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="55">
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="54">
         <f>SUM(C57:N57)</f>
         <v>0</v>
       </c>
-      <c r="P57" s="113"/>
-      <c r="Q57" s="113"/>
-      <c r="R57" s="112"/>
+      <c r="P57" s="112"/>
+      <c r="Q57" s="112"/>
+      <c r="R57" s="111"/>
     </row>
     <row r="58" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="58">
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="57">
         <f>SUM(C58:N58)</f>
         <v>0</v>
       </c>
-      <c r="P58" s="114"/>
-      <c r="Q58" s="114"/>
-      <c r="R58" s="112"/>
+      <c r="P58" s="113"/>
+      <c r="Q58" s="113"/>
+      <c r="R58" s="111"/>
     </row>
     <row r="59" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57">
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56">
         <f>SUM(C59:N59)</f>
         <v>0</v>
       </c>
-      <c r="P59" s="115"/>
-      <c r="Q59" s="115"/>
-      <c r="R59" s="112"/>
+      <c r="P59" s="114"/>
+      <c r="Q59" s="114"/>
+      <c r="R59" s="111"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
@@ -9765,82 +9755,82 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="111"/>
-      <c r="Q60" s="111"/>
-      <c r="R60" s="112"/>
+      <c r="P60" s="110"/>
+      <c r="Q60" s="110"/>
+      <c r="R60" s="111"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="61">
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="60">
         <f>SUM(C61:N61)</f>
         <v>0</v>
       </c>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="112"/>
+      <c r="P61" s="110"/>
+      <c r="Q61" s="110"/>
+      <c r="R61" s="111"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="63"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="63"/>
-      <c r="O62" s="64">
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="63">
         <f>SUM(C62:N62)-0</f>
         <v>0</v>
       </c>
-      <c r="P62" s="65"/>
-      <c r="Q62" s="65"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="64">
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="66"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="63">
         <f>SUM(C63:N63)-0</f>
         <v>0</v>
       </c>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
     </row>
     <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
@@ -9863,22 +9853,22 @@
     </row>
     <row r="65" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="69"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="69"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="69"/>
-      <c r="N65" s="69"/>
-      <c r="O65" s="70">
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="69">
         <f>SUM(C65:N65)-0</f>
         <v>0</v>
       </c>
@@ -9906,22 +9896,22 @@
     </row>
     <row r="67" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="60"/>
-      <c r="O67" s="61">
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="59"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="60">
         <f>SUM(C67:N67)</f>
         <v>0</v>
       </c>
@@ -9930,22 +9920,22 @@
     </row>
     <row r="68" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="72"/>
-      <c r="K68" s="72"/>
-      <c r="L68" s="72"/>
-      <c r="M68" s="72"/>
-      <c r="N68" s="73"/>
-      <c r="O68" s="74">
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="73">
         <f>SUM(C68:N68)-0</f>
         <v>0</v>
       </c>
@@ -9954,22 +9944,22 @@
     </row>
     <row r="69" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
-      <c r="B69" s="75" t="s">
+      <c r="B69" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="76"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="77"/>
-      <c r="O69" s="78">
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="76"/>
+      <c r="O69" s="77">
         <f>SUM(C69:N69)-0</f>
         <v>0</v>
       </c>
@@ -10003,7 +9993,7 @@
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="79"/>
+      <c r="C71" s="78"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -10014,7 +10004,7 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="80" t="s">
+      <c r="N71" s="79" t="s">
         <v>79</v>
       </c>
       <c r="O71" s="3">
@@ -10026,47 +10016,47 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="81" t="s">
+      <c r="B72" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="117" t="s">
+      <c r="C72" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="118"/>
-      <c r="E72" s="118"/>
-      <c r="F72" s="118"/>
-      <c r="G72" s="117">
+      <c r="D72" s="117"/>
+      <c r="E72" s="117"/>
+      <c r="F72" s="117"/>
+      <c r="G72" s="116">
         <f>O56-O61+O62+O63+O65-O67+O68+O69</f>
         <v>0</v>
       </c>
-      <c r="H72" s="118"/>
-      <c r="I72" s="117">
+      <c r="H72" s="117"/>
+      <c r="I72" s="116">
         <f>O56-O61+O62+O63+O65-O67+O68+O69-N75</f>
         <v>0</v>
       </c>
-      <c r="J72" s="118"/>
-      <c r="K72" s="82"/>
-      <c r="L72" s="119" t="s">
+      <c r="J72" s="117"/>
+      <c r="K72" s="81"/>
+      <c r="L72" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="M72" s="119"/>
-      <c r="N72" s="119"/>
-      <c r="O72" s="83">
+      <c r="M72" s="118"/>
+      <c r="N72" s="118"/>
+      <c r="O72" s="82">
         <f>O77+O30+O31+O32</f>
-        <v>0</v>
-      </c>
-      <c r="P72" s="84">
+        <v>2556</v>
+      </c>
+      <c r="P72" s="83">
         <v>0</v>
       </c>
       <c r="Q72" s="3">
         <f>O72-P72</f>
-        <v>0</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="79"/>
+      <c r="C73" s="78"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -10084,46 +10074,46 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="85" t="s">
+      <c r="B74" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="86" t="s">
+      <c r="C74" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="D74" s="86" t="s">
+      <c r="D74" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="E74" s="86" t="s">
+      <c r="E74" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="F74" s="86" t="s">
+      <c r="F74" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="G74" s="86" t="s">
+      <c r="G74" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="H74" s="86" t="s">
+      <c r="H74" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="I74" s="86" t="s">
+      <c r="I74" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="J74" s="86" t="s">
+      <c r="J74" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="K74" s="86" t="s">
+      <c r="K74" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="L74" s="86" t="s">
+      <c r="L74" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="M74" s="86" t="s">
+      <c r="M74" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="N74" s="86" t="s">
+      <c r="N74" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="O74" s="87" t="s">
+      <c r="O74" s="86" t="s">
         <v>96</v>
       </c>
       <c r="P74" s="4" t="s">
@@ -10133,59 +10123,59 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="89">
+      <c r="C75" s="88">
         <f>0-C76</f>
         <v>0</v>
       </c>
-      <c r="D75" s="90">
+      <c r="D75" s="89">
         <f>C75-D76</f>
         <v>0</v>
       </c>
-      <c r="E75" s="91">
+      <c r="E75" s="90">
         <f t="shared" ref="E75:N75" si="0">D75-E76</f>
         <v>0</v>
       </c>
-      <c r="F75" s="91">
+      <c r="F75" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G75" s="92">
+      <c r="G75" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H75" s="92">
+      <c r="H75" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I75" s="93">
+      <c r="I75" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J75" s="93">
+      <c r="J75" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K75" s="93">
+      <c r="K75" s="92">
         <f>J75-K76</f>
         <v>0</v>
       </c>
-      <c r="L75" s="93">
+      <c r="L75" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M75" s="93">
+      <c r="M75" s="92">
         <f>L75-M76</f>
         <v>0</v>
       </c>
-      <c r="N75" s="93">
+      <c r="N75" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O75" s="94"/>
-      <c r="P75" s="84">
+      <c r="O75" s="93"/>
+      <c r="P75" s="83">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10193,118 +10183,118 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="88" t="s">
+      <c r="B76" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="95">
+      <c r="C76" s="94">
         <f>SUM(0-C77)+0</f>
         <v>0</v>
       </c>
-      <c r="D76" s="95">
+      <c r="D76" s="94">
         <f t="shared" ref="D76:N76" si="1">SUM(0-D77)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="96">
+      <c r="E76" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F76" s="97">
+      <c r="F76" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G76" s="97">
+      <c r="G76" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H76" s="97">
+      <c r="H76" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I76" s="97">
+      <c r="I76" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J76" s="97">
+      <c r="J76" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K76" s="96">
+      <c r="K76" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L76" s="97">
+      <c r="L76" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M76" s="97">
+      <c r="M76" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N76" s="97">
+      <c r="N76" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O76" s="98">
+      <c r="O76" s="97">
         <f>SUM(C76:N76)</f>
         <v>0</v>
       </c>
-      <c r="P76" s="84">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="84">
+      <c r="P76" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="83">
         <f>P76-O76+0</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
-      <c r="B77" s="99" t="s">
+      <c r="B77" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="100">
-        <v>0</v>
-      </c>
-      <c r="D77" s="100">
-        <v>0</v>
-      </c>
-      <c r="E77" s="101">
-        <v>0</v>
-      </c>
-      <c r="F77" s="101">
-        <v>0</v>
-      </c>
-      <c r="G77" s="101">
-        <v>0</v>
-      </c>
-      <c r="H77" s="101">
-        <v>0</v>
-      </c>
-      <c r="I77" s="101">
-        <v>0</v>
-      </c>
-      <c r="J77" s="101">
-        <v>0</v>
-      </c>
-      <c r="K77" s="101">
-        <v>0</v>
-      </c>
-      <c r="L77" s="101">
-        <v>0</v>
-      </c>
-      <c r="M77" s="101">
-        <v>0</v>
-      </c>
-      <c r="N77" s="101">
-        <v>0</v>
-      </c>
-      <c r="O77" s="102">
+      <c r="C77" s="99">
+        <v>0</v>
+      </c>
+      <c r="D77" s="99">
+        <v>0</v>
+      </c>
+      <c r="E77" s="100">
+        <v>0</v>
+      </c>
+      <c r="F77" s="100">
+        <v>0</v>
+      </c>
+      <c r="G77" s="100">
+        <v>0</v>
+      </c>
+      <c r="H77" s="100">
+        <v>0</v>
+      </c>
+      <c r="I77" s="100">
+        <v>0</v>
+      </c>
+      <c r="J77" s="100">
+        <v>0</v>
+      </c>
+      <c r="K77" s="100">
+        <v>0</v>
+      </c>
+      <c r="L77" s="100">
+        <v>0</v>
+      </c>
+      <c r="M77" s="100">
+        <v>0</v>
+      </c>
+      <c r="N77" s="100">
+        <v>0</v>
+      </c>
+      <c r="O77" s="101">
         <f>SUM(C77:N77)</f>
         <v>0</v>
       </c>
-      <c r="P77" s="103">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="84">
+      <c r="P77" s="102">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="83">
         <f>P77-O77</f>
         <v>0</v>
       </c>
@@ -10341,17 +10331,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="3">
-    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" displayHidden="1" xr2:uid="{BB132E70-6363-4E4C-8A89-BF727A2EB35D}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" displayHidden="1" xr2:uid="{5DA3CFBF-30AB-4280-AA3F-3BE7D6C06243}">
           <x14:colorSeries theme="5" tint="0.39997558519241921"/>
           <x14:colorNegative theme="0" tint="-0.499984740745262"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10362,16 +10353,116 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Tabelle1!C30:N30</xm:f>
-              <xm:sqref>P30</xm:sqref>
+              <xm:f>Tabelle1!C33:N33</xm:f>
+              <xm:sqref>P33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" displayHidden="1" xr2:uid="{6194166C-0FA0-40EA-B7CD-3FA017D31992}">
+          <x14:colorSeries theme="5" tint="0.39997558519241921"/>
+          <x14:colorNegative theme="0" tint="-0.499984740745262"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5"/>
+          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
+          <x14:colorLast theme="6" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C28:N28</xm:f>
+              <xm:sqref>P28</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Tabelle1!C31:N31</xm:f>
-              <xm:sqref>P31</xm:sqref>
+              <xm:f>Tabelle1!C29:N29</xm:f>
+              <xm:sqref>P29</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" displayHidden="1" xr2:uid="{4F9F611F-3D47-405D-ACC0-0FBEBA960E13}">
+          <x14:colorSeries theme="5" tint="0.39997558519241921"/>
+          <x14:colorNegative theme="0" tint="-0.499984740745262"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5"/>
+          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
+          <x14:colorLast theme="6" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C46:N46</xm:f>
+              <xm:sqref>P46</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{159B687A-E700-4B1A-9705-F79F37EB4412}">
+          <x14:colorSeries theme="5" tint="0.39997558519241921"/>
+          <x14:colorNegative theme="0" tint="-0.499984740745262"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5"/>
+          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
+          <x14:colorLast theme="6" tint="-0.249977111117893"/>
+          <x14:colorHigh rgb="FF92D050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C8:N8</xm:f>
+              <xm:sqref>P8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Tabelle1!C32:N32</xm:f>
-              <xm:sqref>P32</xm:sqref>
+              <xm:f>Tabelle1!C9:N9</xm:f>
+              <xm:sqref>P9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C10:N10</xm:f>
+              <xm:sqref>P10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C11:N11</xm:f>
+              <xm:sqref>P11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C12:N12</xm:f>
+              <xm:sqref>P12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" displayHidden="1" xr2:uid="{76E55255-976E-482F-84A8-876A0B92299F}">
+          <x14:colorSeries theme="5" tint="0.39997558519241921"/>
+          <x14:colorNegative theme="0" tint="-0.499984740745262"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5"/>
+          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
+          <x14:colorLast theme="6" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C34:N34</xm:f>
+              <xm:sqref>P34</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{6B90BBAF-B1D5-40BD-A498-044FCD2A2516}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative rgb="FFFFB620"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD70077"/>
+          <x14:colorFirst rgb="FF777777"/>
+          <x14:colorLast rgb="FF359CEB"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF92D050"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C53:N53</xm:f>
+              <xm:sqref>P53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C13:N13</xm:f>
+              <xm:sqref>P13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Tabelle1!C5:N5</xm:f>
+              <xm:sqref>P5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10503,31 +10594,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{6B90BBAF-B1D5-40BD-A498-044FCD2A2516}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative rgb="FFFFB620"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD70077"/>
-          <x14:colorFirst rgb="FF777777"/>
-          <x14:colorLast rgb="FF359CEB"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF92D050"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Tabelle1!C53:N53</xm:f>
-              <xm:sqref>P53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Tabelle1!C13:N13</xm:f>
-              <xm:sqref>P13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Tabelle1!C5:N5</xm:f>
-              <xm:sqref>P5</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" displayHidden="1" xr2:uid="{76E55255-976E-482F-84A8-876A0B92299F}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" displayHidden="1" xr2:uid="{BB132E70-6363-4E4C-8A89-BF727A2EB35D}">
           <x14:colorSeries theme="5" tint="0.39997558519241921"/>
           <x14:colorNegative theme="0" tint="-0.499984740745262"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10538,92 +10605,16 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Tabelle1!C34:N34</xm:f>
-              <xm:sqref>P34</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{159B687A-E700-4B1A-9705-F79F37EB4412}">
-          <x14:colorSeries theme="5" tint="0.39997558519241921"/>
-          <x14:colorNegative theme="0" tint="-0.499984740745262"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5"/>
-          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
-          <x14:colorLast theme="6" tint="-0.249977111117893"/>
-          <x14:colorHigh rgb="FF92D050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Tabelle1!C8:N8</xm:f>
-              <xm:sqref>P8</xm:sqref>
+              <xm:f>Tabelle1!C30:N30</xm:f>
+              <xm:sqref>P30</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Tabelle1!C9:N9</xm:f>
-              <xm:sqref>P9</xm:sqref>
+              <xm:f>Tabelle1!C31:N31</xm:f>
+              <xm:sqref>P31</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Tabelle1!C10:N10</xm:f>
-              <xm:sqref>P10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Tabelle1!C11:N11</xm:f>
-              <xm:sqref>P11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Tabelle1!C12:N12</xm:f>
-              <xm:sqref>P12</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" displayHidden="1" xr2:uid="{4F9F611F-3D47-405D-ACC0-0FBEBA960E13}">
-          <x14:colorSeries theme="5" tint="0.39997558519241921"/>
-          <x14:colorNegative theme="0" tint="-0.499984740745262"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5"/>
-          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
-          <x14:colorLast theme="6" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Tabelle1!C46:N46</xm:f>
-              <xm:sqref>P46</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" displayHidden="1" xr2:uid="{6194166C-0FA0-40EA-B7CD-3FA017D31992}">
-          <x14:colorSeries theme="5" tint="0.39997558519241921"/>
-          <x14:colorNegative theme="0" tint="-0.499984740745262"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5"/>
-          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
-          <x14:colorLast theme="6" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Tabelle1!C28:N28</xm:f>
-              <xm:sqref>P28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Tabelle1!C29:N29</xm:f>
-              <xm:sqref>P29</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="span" markers="1" high="1" low="1" displayHidden="1" xr2:uid="{5DA3CFBF-30AB-4280-AA3F-3BE7D6C06243}">
-          <x14:colorSeries theme="5" tint="0.39997558519241921"/>
-          <x14:colorNegative theme="0" tint="-0.499984740745262"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5"/>
-          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
-          <x14:colorLast theme="6" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Tabelle1!C33:N33</xm:f>
-              <xm:sqref>P33</xm:sqref>
+              <xm:f>Tabelle1!C32:N32</xm:f>
+              <xm:sqref>P32</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
